--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>15.52406734652556</v>
+        <v>18.01388924871333</v>
       </c>
       <c r="R2">
-        <v>139.71660611873</v>
+        <v>162.12500323842</v>
       </c>
       <c r="S2">
-        <v>0.0004795889874082133</v>
+        <v>0.0007794966199055534</v>
       </c>
       <c r="T2">
-        <v>0.0004795889874082133</v>
+        <v>0.0007794966199055533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>420.1252635203989</v>
+        <v>521.4376484826922</v>
       </c>
       <c r="R3">
-        <v>3781.12737168359</v>
+        <v>4692.93883634423</v>
       </c>
       <c r="S3">
-        <v>0.01297903733723829</v>
+        <v>0.02256363847206348</v>
       </c>
       <c r="T3">
-        <v>0.01297903733723829</v>
+        <v>0.02256363847206347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H4">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>573.4184331614122</v>
+        <v>363.9328512284567</v>
       </c>
       <c r="R4">
-        <v>5160.76589845271</v>
+        <v>3275.39566105611</v>
       </c>
       <c r="S4">
-        <v>0.01771476247702796</v>
+        <v>0.01574809434478094</v>
       </c>
       <c r="T4">
-        <v>0.01771476247702796</v>
+        <v>0.01574809434478094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>40.1879411978089</v>
+        <v>55.48847986226222</v>
       </c>
       <c r="R5">
-        <v>361.69147078028</v>
+        <v>499.39631876036</v>
       </c>
       <c r="S5">
-        <v>0.001241536357376834</v>
+        <v>0.002401096281827101</v>
       </c>
       <c r="T5">
-        <v>0.001241536357376834</v>
+        <v>0.0024010962818271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H6">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>430.2511810663589</v>
+        <v>369.4376019118112</v>
       </c>
       <c r="R6">
-        <v>3872.26062959723</v>
+        <v>3324.938417206301</v>
       </c>
       <c r="S6">
-        <v>0.01329185990068413</v>
+        <v>0.01598629579544236</v>
       </c>
       <c r="T6">
-        <v>0.01329185990068413</v>
+        <v>0.01598629579544236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>258.3978994277138</v>
+        <v>241.5835519710187</v>
       </c>
       <c r="R7">
-        <v>2325.581094849424</v>
+        <v>2174.251967739168</v>
       </c>
       <c r="S7">
-        <v>0.007982752468713182</v>
+        <v>0.01045379815464543</v>
       </c>
       <c r="T7">
-        <v>0.007982752468713182</v>
+        <v>0.01045379815464543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>6992.979556641933</v>
@@ -948,10 +948,10 @@
         <v>62936.81600977739</v>
       </c>
       <c r="S8">
-        <v>0.2160359079662744</v>
+        <v>0.3026000577782151</v>
       </c>
       <c r="T8">
-        <v>0.2160359079662744</v>
+        <v>0.302600057778215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>9544.542375049783</v>
+        <v>4880.68898752615</v>
       </c>
       <c r="R9">
-        <v>85900.88137544805</v>
+        <v>43926.20088773535</v>
       </c>
       <c r="S9">
-        <v>0.2948619914322512</v>
+        <v>0.2111970666666906</v>
       </c>
       <c r="T9">
-        <v>0.2948619914322512</v>
+        <v>0.2111970666666906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J10">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>668.9277594613405</v>
+        <v>744.1537956360604</v>
       </c>
       <c r="R10">
-        <v>6020.349835152065</v>
+        <v>6697.384160724545</v>
       </c>
       <c r="S10">
-        <v>0.02066535654917201</v>
+        <v>0.03220100669985129</v>
       </c>
       <c r="T10">
-        <v>0.02066535654917201</v>
+        <v>0.03220100669985128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J11">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>7161.525322725581</v>
+        <v>4954.512979915503</v>
       </c>
       <c r="R11">
-        <v>64453.72790453023</v>
+        <v>44590.61681923953</v>
       </c>
       <c r="S11">
-        <v>0.2212428354733294</v>
+        <v>0.214391576843861</v>
       </c>
       <c r="T11">
-        <v>0.2212428354733294</v>
+        <v>0.2143915768438609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>26.64025615010955</v>
+        <v>13.126299480368</v>
       </c>
       <c r="R12">
-        <v>239.762305350986</v>
+        <v>118.136695323312</v>
       </c>
       <c r="S12">
-        <v>0.0008230042543706143</v>
+        <v>0.0005680009428028266</v>
       </c>
       <c r="T12">
-        <v>0.0008230042543706143</v>
+        <v>0.0005680009428028266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>720.9608400610708</v>
+        <v>379.9594101985253</v>
       </c>
       <c r="R13">
-        <v>6488.647560549637</v>
+        <v>3419.634691786728</v>
       </c>
       <c r="S13">
-        <v>0.0222728278309904</v>
+        <v>0.01644159525251955</v>
       </c>
       <c r="T13">
-        <v>0.0222728278309904</v>
+        <v>0.01644159525251955</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H14">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I14">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J14">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>984.0213649957801</v>
+        <v>265.189350839944</v>
       </c>
       <c r="R14">
-        <v>8856.19228496202</v>
+        <v>2386.704157559496</v>
       </c>
       <c r="S14">
-        <v>0.0303996239833368</v>
+        <v>0.0114752677648137</v>
       </c>
       <c r="T14">
-        <v>0.0303996239833368</v>
+        <v>0.0114752677648137</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H15">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I15">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J15">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>68.96498345163289</v>
+        <v>40.43315656747733</v>
       </c>
       <c r="R15">
-        <v>620.684851064696</v>
+        <v>363.898409107296</v>
       </c>
       <c r="S15">
-        <v>0.002130552891964572</v>
+        <v>0.001749622662896731</v>
       </c>
       <c r="T15">
-        <v>0.002130552891964572</v>
+        <v>0.00174962266289673</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H16">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I16">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J16">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>738.3375385227429</v>
+        <v>269.2005338241867</v>
       </c>
       <c r="R16">
-        <v>6645.037846704686</v>
+        <v>2422.80480441768</v>
       </c>
       <c r="S16">
-        <v>0.02280965062579722</v>
+        <v>0.01164883958680451</v>
       </c>
       <c r="T16">
-        <v>0.02280965062579722</v>
+        <v>0.01164883958680451</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>20.58518934106855</v>
+        <v>28.83802524801733</v>
       </c>
       <c r="R17">
-        <v>185.266704069617</v>
+        <v>259.542227232156</v>
       </c>
       <c r="S17">
-        <v>0.0006359435250645807</v>
+        <v>0.001247878395121482</v>
       </c>
       <c r="T17">
-        <v>0.0006359435250645806</v>
+        <v>0.001247878395121482</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H18">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I18">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J18">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>557.093569841368</v>
+        <v>834.757661968235</v>
       </c>
       <c r="R18">
-        <v>5013.842128572311</v>
+        <v>7512.818957714114</v>
       </c>
       <c r="S18">
-        <v>0.0172104342945694</v>
+        <v>0.03612161521371506</v>
       </c>
       <c r="T18">
-        <v>0.0172104342945694</v>
+        <v>0.03612161521371506</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H19">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I19">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J19">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>760.3630385517732</v>
+        <v>582.6118173263887</v>
       </c>
       <c r="R19">
-        <v>6843.267346965958</v>
+        <v>5243.506355937498</v>
       </c>
       <c r="S19">
-        <v>0.02349009003773049</v>
+        <v>0.02521076576261229</v>
       </c>
       <c r="T19">
-        <v>0.02349009003773049</v>
+        <v>0.02521076576261229</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H20">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I20">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J20">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>53.28992462595689</v>
+        <v>88.83024432696089</v>
       </c>
       <c r="R20">
-        <v>479.609321633612</v>
+        <v>799.472198942648</v>
       </c>
       <c r="S20">
-        <v>0.001646299286130233</v>
+        <v>0.003843860381410763</v>
       </c>
       <c r="T20">
-        <v>0.001646299286130233</v>
+        <v>0.003843860381410762</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H21">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I21">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J21">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>570.5207165602519</v>
+        <v>591.4242473907045</v>
       </c>
       <c r="R21">
-        <v>5134.686449042267</v>
+        <v>5322.81822651634</v>
       </c>
       <c r="S21">
-        <v>0.0176252425761202</v>
+        <v>0.02559209704279538</v>
       </c>
       <c r="T21">
-        <v>0.01762524257612019</v>
+        <v>0.02559209704279538</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H22">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I22">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J22">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>18.49728876172189</v>
+        <v>11.839787085294</v>
       </c>
       <c r="R22">
-        <v>166.475598855497</v>
+        <v>106.558083767646</v>
       </c>
       <c r="S22">
-        <v>0.0005714414778686827</v>
+        <v>0.0005123310067006933</v>
       </c>
       <c r="T22">
-        <v>0.0005714414778686827</v>
+        <v>0.0005123310067006932</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H23">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I23">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J23">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>500.5890622582612</v>
+        <v>342.7194789005611</v>
       </c>
       <c r="R23">
-        <v>4505.301560324351</v>
+        <v>3084.475310105049</v>
       </c>
       <c r="S23">
-        <v>0.01546482607406352</v>
+        <v>0.01483014976334782</v>
       </c>
       <c r="T23">
-        <v>0.01546482607406352</v>
+        <v>0.01483014976334782</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H24">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I24">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J24">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>683.2414535907465</v>
+        <v>239.198066136477</v>
       </c>
       <c r="R24">
-        <v>6149.173082316718</v>
+        <v>2152.782595228293</v>
       </c>
       <c r="S24">
-        <v>0.02110755316687278</v>
+        <v>0.01035057346400898</v>
       </c>
       <c r="T24">
-        <v>0.02110755316687278</v>
+        <v>0.01035057346400898</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H25">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I25">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J25">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>47.88487040681022</v>
+        <v>36.470291239452</v>
       </c>
       <c r="R25">
-        <v>430.963833661292</v>
+        <v>328.232621155068</v>
       </c>
       <c r="S25">
-        <v>0.001479319562196788</v>
+        <v>0.001578141641464488</v>
       </c>
       <c r="T25">
-        <v>0.001479319562196788</v>
+        <v>0.001578141641464488</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H26">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I26">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J26">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>512.6543294749052</v>
+        <v>242.8161119204101</v>
       </c>
       <c r="R26">
-        <v>4613.888965274147</v>
+        <v>2185.34500728369</v>
       </c>
       <c r="S26">
-        <v>0.01583756146344811</v>
+        <v>0.01050713346170302</v>
       </c>
       <c r="T26">
-        <v>0.01583756146344811</v>
+        <v>0.01050713346170302</v>
       </c>
     </row>
   </sheetData>
